--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2988746.584852509</v>
+        <v>2986333.672346705</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10689347.14596503</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>328.2304539928172</v>
+        <v>311.723616015233</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444496</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>287.0398290178333</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1670,10 +1670,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>243.9557686402696</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6975793111181</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584043</v>
       </c>
       <c r="T17" t="n">
         <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
-        <v>88.33678352951065</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V17" t="n">
         <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629242</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587694</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423375</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059591</v>
+        <v>77.19690168059583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669281</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198537</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750269</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771193</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>152.5874830435864</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96361544584042</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U20" t="n">
         <v>182.7710256165666</v>
@@ -2141,10 +2141,10 @@
         <v>259.5281121277995</v>
       </c>
       <c r="W20" t="n">
-        <v>45.22622721742859</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0137923137182</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629242</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587694</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423375</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059591</v>
+        <v>77.19690168059583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669281</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198537</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750268</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771191</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449852</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584042</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
         <v>182.7710256165666</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277996</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629252</v>
+        <v>99.02267475629242</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587704</v>
+        <v>80.39132667587694</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423385</v>
+        <v>78.20981630423375</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059593</v>
+        <v>77.19690168059583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669291</v>
+        <v>97.80166191669281</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198547</v>
+        <v>76.53086857198537</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750278</v>
+        <v>28.12827406750268</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771201</v>
+        <v>20.70800632771191</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.2977551524149</v>
@@ -3035,7 +3035,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958316</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800352</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572811</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145466</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>93.1376910545014</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>134.2912433677312</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441572</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253495</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592155</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.1067657762839</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>93.1376910545014</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390067</v>
+        <v>232.5304484985372</v>
       </c>
       <c r="F41" t="n">
-        <v>272.5241832257729</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201982</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>222.6491710540652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492068</v>
+        <v>37.2291684549206</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256467</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841579</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.2882277653727</v>
+        <v>95.2882277653726</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495722</v>
+        <v>76.65687968495712</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331403</v>
+        <v>74.47536931331393</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967611</v>
+        <v>73.46245468967601</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577309</v>
+        <v>94.06721492577299</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106564</v>
+        <v>72.79642158106554</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658296</v>
+        <v>24.39382707658286</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679219</v>
+        <v>16.97355933679209</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429141</v>
+        <v>179.0030121784566</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>245.9770612388769</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>252.0340512647174</v>
+        <v>334.9174524084561</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201982</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492074</v>
+        <v>37.22916845492057</v>
       </c>
       <c r="T44" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256469</v>
+        <v>179.0365786256467</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368796</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>277.2823753841577</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452139</v>
+        <v>297.7725073452137</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486822</v>
+        <v>107.873386848682</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537272</v>
+        <v>95.28822776537257</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495725</v>
+        <v>76.65687968495709</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331406</v>
+        <v>74.47536931331391</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967614</v>
+        <v>73.46245468967598</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577311</v>
+        <v>94.06721492577296</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106567</v>
+        <v>72.79642158106552</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658299</v>
+        <v>24.39382707658283</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679222</v>
+        <v>48.38621557233523</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981866</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429141</v>
+        <v>147.5903559429139</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905727</v>
       </c>
       <c r="W46" t="n">
-        <v>245.9770612388766</v>
+        <v>214.5644050033357</v>
       </c>
       <c r="X46" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188395</v>
       </c>
     </row>
   </sheetData>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1644.05721849195</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1322.544334499612</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1011.728268840935</v>
+        <v>995.0546951262033</v>
       </c>
       <c r="E11" t="n">
-        <v>680.1823557168772</v>
+        <v>680.1823557168771</v>
       </c>
       <c r="F11" t="n">
         <v>316.6460838753429</v>
@@ -5033,16 +5033,16 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5054,37 +5054,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
         <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
         <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607999</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1983.207425607999</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080137</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>920.741664998631</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5176,34 +5176,34 @@
         <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611987</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328083</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337111</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5230,7 +5230,7 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1970.073343804957</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1648.560459812619</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1337.744394153942</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822728</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.223550921006</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2309.223550921006</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657649</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
@@ -5440,7 +5440,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,13 +5455,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.690865111401</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.641627304662</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831583</v>
+        <v>883.6750316691846</v>
       </c>
       <c r="E17" t="n">
-        <v>983.414234367011</v>
+        <v>637.2550633456794</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110755</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.163963787832</v>
+        <v>3147.163963787831</v>
       </c>
       <c r="U17" t="n">
-        <v>3057.934889515599</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>2795.785281305701</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2511.929905169259</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2207.377426041851</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.377426041851</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.220726506103</v>
+        <v>609.2207265061024</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118676</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332045</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844831</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202452</v>
+        <v>271.0179796202449</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286362</v>
+        <v>172.228422128636</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016601</v>
+        <v>94.92451448016591</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261634</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925712</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.70149455199</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125279</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026707</v>
+        <v>721.95591220267</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.690865111401</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304662</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831583</v>
+        <v>883.6750316691846</v>
       </c>
       <c r="E20" t="n">
-        <v>983.414234367011</v>
+        <v>566.8000582046125</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110755</v>
+        <v>412.6712874535148</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897442</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5765,37 +5765,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3147.163963787831</v>
       </c>
       <c r="U20" t="n">
-        <v>3140.988624016679</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V20" t="n">
-        <v>2878.83901580678</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W20" t="n">
-        <v>2833.155958011399</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2528.603478883991</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.377426041851</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.220726506103</v>
+        <v>609.2207265061024</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118676</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332045</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844831</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202452</v>
+        <v>271.0179796202449</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286362</v>
+        <v>172.228422128636</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016601</v>
+        <v>94.9245144801659</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
         <v>315.6219318279954</v>
@@ -5926,34 +5926,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125279</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026707</v>
+        <v>721.95591220267</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
         <v>1598.143957430425</v>
@@ -5972,19 +5972,19 @@
         <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927743</v>
+        <v>991.9165644927738</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368388</v>
+        <v>649.8439388368383</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J23" t="n">
         <v>263.8935775169721</v>
@@ -5999,40 +5999,40 @@
         <v>1582.279069127152</v>
       </c>
       <c r="N23" t="n">
-        <v>2129.057886185934</v>
+        <v>2168.679882898213</v>
       </c>
       <c r="O23" t="n">
-        <v>3009.022536515389</v>
+        <v>3048.644533227668</v>
       </c>
       <c r="P23" t="n">
-        <v>3403.796902872567</v>
+        <v>3443.418899584846</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.70526134053</v>
+        <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897331</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075994</v>
+        <v>3572.280470075993</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483503</v>
+        <v>3387.663272483501</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273604</v>
+        <v>3125.513664273603</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137162</v>
+        <v>2841.658288137161</v>
       </c>
       <c r="X23" t="n">
         <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167614</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068717</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257448</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644935</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.421290659038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.886732685923</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185411</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564087</v>
+        <v>94.02173815640862</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J24" t="n">
         <v>168.691716048564</v>
@@ -6072,7 +6072,7 @@
         <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415765</v>
+        <v>773.6540753415766</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930400563892</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318663</v>
+        <v>617.7230566318656</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376314</v>
+        <v>517.7001528376309</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589678</v>
+        <v>436.4967925589673</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102467</v>
+        <v>357.4969781102463</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460084</v>
+        <v>279.5203097460081</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543994</v>
+        <v>180.7307522543992</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059293</v>
+        <v>103.4268446059291</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
@@ -6154,43 +6154,43 @@
         <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>1013.465849051475</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757341</v>
+        <v>1354.874225757339</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1654.203824677753</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1886.811325111412</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263929</v>
+        <v>1964.421621263927</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155129</v>
+        <v>1943.504443155127</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.731838115626</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818824</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078141</v>
+        <v>1447.68891407814</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>882.337542338292</v>
+        <v>882.3375423382911</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284339</v>
+        <v>730.4582423284331</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611206</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490543</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,10 +6403,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6467,25 +6467,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1184.800837351327</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.332742023251</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2265.111559082034</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411488</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6698,19 +6698,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>822.9179334642249</v>
       </c>
       <c r="L32" t="n">
-        <v>1635.769886219269</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M32" t="n">
-        <v>2169.301790891193</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N32" t="n">
-        <v>2716.080607949976</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O32" t="n">
         <v>3290.208794490542</v>
@@ -6722,7 +6722,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913838</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307339</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6953,34 +6953,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389146</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C37" t="n">
-        <v>473.2993530110077</v>
+        <v>430.6660820368721</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758176</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>934.0185561150358</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649977</v>
+        <v>804.7004397908619</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.212566195311</v>
+        <v>682.5792952211752</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.9308303909359</v>
+        <v>444.8926667912276</v>
       </c>
       <c r="C40" t="n">
-        <v>430.6660820368724</v>
+        <v>374.6279184371641</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457503</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1084.164238994386</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>856.174688096369</v>
+        <v>748.662276191154</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.3821089528388</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1804.034348820288</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C41" t="n">
-        <v>1507.757279691245</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D41" t="n">
-        <v>1222.177028895864</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="E41" t="n">
-        <v>909.0742241089883</v>
+        <v>972.0977283339205</v>
       </c>
       <c r="F41" t="n">
-        <v>633.797271355682</v>
+        <v>633.7972713556819</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120474</v>
+        <v>291.4102690120473</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947636</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
         <v>3154.708301143226</v>
@@ -7451,10 +7451,10 @@
         <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2435.402625237484</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>2117.948741073041</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622256</v>
+        <v>582.8155457622249</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456875</v>
+        <v>486.564810645687</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447207</v>
+        <v>409.1336190447201</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736964</v>
+        <v>333.905973273696</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871549</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732424</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246926</v>
+        <v>91.15234580246914</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.149538657389</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S43" t="n">
         <v>1791.149102295585</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999064</v>
+        <v>995.1897971999053</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132578</v>
+        <v>839.8856941132569</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810965</v>
+        <v>691.7785627810957</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1783.337245829323</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C44" t="n">
-        <v>1487.06017670028</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D44" t="n">
-        <v>1201.479925904898</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3771211180228</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="F44" t="n">
-        <v>633.797271355682</v>
+        <v>583.096261467914</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242795</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947636</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
         <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.863272228432</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.48583269623</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2715.48583269623</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.705522246519</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2097.251638082076</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622258</v>
+        <v>582.8155457622247</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456878</v>
+        <v>486.5648106456868</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447208</v>
+        <v>409.13361904472</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736965</v>
+        <v>333.9059732736958</v>
       </c>
       <c r="F46" t="n">
-        <v>259.701473587155</v>
+        <v>259.7014735871545</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732424</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246928</v>
+        <v>91.15234580246911</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863912</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.419146502107</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883002</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999066</v>
+        <v>995.1897971999049</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132581</v>
+        <v>839.8856941132565</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810968</v>
+        <v>691.7785627810954</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331813</v>
+        <v>161.2833466331806</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772616</v>
+        <v>190.4708996772606</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711494</v>
+        <v>199.0214867114928</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499973</v>
+        <v>189.4604205499959</v>
       </c>
       <c r="N8" t="n">
-        <v>187.865675725396</v>
+        <v>187.8656757253946</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001307</v>
+        <v>190.8661912001294</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610383</v>
+        <v>197.7493741610372</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168184</v>
+        <v>197.1608845168176</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723704</v>
+        <v>115.06718257237</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484546</v>
+        <v>117.7238752484539</v>
       </c>
       <c r="L9" t="n">
-        <v>111.503832688832</v>
+        <v>111.5038326888312</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586509</v>
+        <v>110.5673213586499</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809833</v>
+        <v>98.93952256809726</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195528</v>
+        <v>112.9545713195518</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755404</v>
+        <v>110.1843514755396</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137825</v>
+        <v>124.078751713782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747618</v>
+        <v>119.3562654747613</v>
       </c>
       <c r="M10" t="n">
-        <v>122.553251996029</v>
+        <v>122.5532519960285</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290574</v>
+        <v>111.7023147290569</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297872</v>
+        <v>123.6934388297868</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182094</v>
+        <v>125.095621918209</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129169</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40.02221890129354</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>334.4868774152285</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279866</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>131.233537936724</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>287.0017854473906</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.285365574408</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>71.8744602638676</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-2.013511122104281e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-7.345341977361007e-14</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.724779460852055</v>
+        <v>23.23161743843615</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796537</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>47.91540443583596</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.75045508965673</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>94.43424208705598</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557896</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.9636154458405</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972848</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>235.7905951576491</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.44132824046935</v>
       </c>
       <c r="F41" t="n">
-        <v>62.3932691826834</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390065</v>
       </c>
       <c r="F44" t="n">
-        <v>82.88340114373889</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889004</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841579</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779962.6651407831</v>
+        <v>779962.6651407826</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660830.3497765881</v>
+        <v>660830.349776588</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680958.2617473064</v>
+        <v>680958.2617473063</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723938.3541287386</v>
+        <v>723938.3541287385</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708864.4957548628</v>
+        <v>708864.4957548627</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684495.6793149853</v>
+        <v>684495.6793149852</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453348</v>
       </c>
       <c r="C2" t="n">
         <v>737348.7048453345</v>
       </c>
       <c r="D2" t="n">
-        <v>737365.3859705057</v>
+        <v>737365.3859705059</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008588</v>
       </c>
       <c r="F2" t="n">
-        <v>688077.9089008591</v>
+        <v>688077.9089008583</v>
       </c>
       <c r="G2" t="n">
-        <v>709389.8156933837</v>
+        <v>709389.8156933842</v>
       </c>
       <c r="H2" t="n">
-        <v>709389.8156933838</v>
+        <v>709389.8156933836</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="K2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="O2" t="n">
-        <v>713135.3166473974</v>
+        <v>713135.316647397</v>
       </c>
       <c r="P2" t="n">
-        <v>713135.3166473972</v>
+        <v>713135.3166473971</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264907</v>
+        <v>49603.9900426507</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112468</v>
+        <v>1114814.601112466</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.342516497970791e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899421</v>
+        <v>16999.20777899428</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716357</v>
+        <v>28261.85161716354</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225417</v>
+        <v>40637.4523822542</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899429</v>
+        <v>16999.20777899433</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>425002.2112916265</v>
+        <v>425002.211291626</v>
       </c>
       <c r="E4" t="n">
+        <v>58825.5013786109</v>
+      </c>
+      <c r="F4" t="n">
         <v>58825.50137861085</v>
       </c>
-      <c r="F4" t="n">
-        <v>58825.50137861084</v>
-      </c>
       <c r="G4" t="n">
-        <v>72234.15779441225</v>
+        <v>72234.15779441233</v>
       </c>
       <c r="H4" t="n">
-        <v>72234.15779441225</v>
+        <v>72234.15779441228</v>
       </c>
       <c r="I4" t="n">
         <v>87358.26236286771</v>
       </c>
       <c r="J4" t="n">
+        <v>84858.15940173081</v>
+      </c>
+      <c r="K4" t="n">
         <v>84858.15940173087</v>
       </c>
-      <c r="K4" t="n">
-        <v>84858.15940173085</v>
-      </c>
       <c r="L4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="M4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="O4" t="n">
-        <v>74600.57793586684</v>
+        <v>74600.57793586687</v>
       </c>
       <c r="P4" t="n">
-        <v>74600.57793586681</v>
+        <v>74600.5779358669</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253469</v>
+        <v>34890.26850253474</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582712</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>80355.82754432673</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262071.8548495141</v>
+        <v>262067.4412716462</v>
       </c>
       <c r="C6" t="n">
-        <v>262071.854849514</v>
+        <v>262067.4412716459</v>
       </c>
       <c r="D6" t="n">
-        <v>227868.9161336954</v>
+        <v>227864.5488922851</v>
       </c>
       <c r="E6" t="n">
-        <v>-563817.6869120017</v>
+        <v>-563958.9638119359</v>
       </c>
       <c r="F6" t="n">
-        <v>550996.9142004665</v>
+        <v>550855.6373005294</v>
       </c>
       <c r="G6" t="n">
-        <v>540114.5737997302</v>
+        <v>540032.4966408848</v>
       </c>
       <c r="H6" t="n">
-        <v>557113.7815787245</v>
+        <v>557031.7044198783</v>
       </c>
       <c r="I6" t="n">
         <v>536813.8316819972</v>
       </c>
       <c r="J6" t="n">
-        <v>524064.0394190645</v>
+        <v>524064.0394190639</v>
       </c>
       <c r="K6" t="n">
-        <v>564701.4918013184</v>
+        <v>564701.4918013182</v>
       </c>
       <c r="L6" t="n">
-        <v>547702.2840223247</v>
+        <v>547702.2840223245</v>
       </c>
       <c r="M6" t="n">
-        <v>363286.8845907243</v>
+        <v>363286.8845907245</v>
       </c>
       <c r="N6" t="n">
-        <v>565454.9845834483</v>
+        <v>565454.9845834484</v>
       </c>
       <c r="O6" t="n">
-        <v>558178.9111672038</v>
+        <v>558107.2381776742</v>
       </c>
       <c r="P6" t="n">
-        <v>558178.9111672037</v>
+        <v>558107.2381776744</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076591</v>
+        <v>57.92057351076781</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743332</v>
+        <v>937.6805819743328</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374285</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.7261268948498</v>
+        <v>25.72612689484976</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374287</v>
+        <v>21.24900972374291</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951226</v>
+        <v>50.70958360951237</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076591</v>
+        <v>57.92057351076781</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082532</v>
+        <v>1031.85612708253</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720405</v>
+        <v>106.2791265720404</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428143</v>
+        <v>76.65587923428166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374285</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.7261268948498</v>
+        <v>25.72612689484976</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507122</v>
+        <v>201.4990738507119</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098104</v>
+        <v>135.2425723098099</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596058</v>
+        <v>203.7140793596056</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.1072318885895</v>
+        <v>85.10723188858935</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643179</v>
+        <v>92.42270548643154</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112974</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.9747817528494</v>
+        <v>85.97478175284915</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657813</v>
+        <v>10.13465691657773</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156873</v>
+        <v>77.41603665156845</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348048</v>
+        <v>172.5970773348046</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
         <v>46.97513661859256</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835565</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835603</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.91388186835485</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.91388186835603</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233542</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835462</v>
       </c>
       <c r="N25" t="n">
-        <v>28.9138818683561</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233542</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661858981</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.47778196371095</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371067</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.72521440565339</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>55.47778196371095</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,25 +30426,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325514</v>
+        <v>40.5459370977126</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="W43" t="n">
-        <v>40.54593709771413</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325514</v>
+        <v>71.95859333325524</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325511</v>
+        <v>40.5459370977121</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="W46" t="n">
-        <v>40.54593709771436</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325511</v>
+        <v>71.95859333325527</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764457</v>
+        <v>0.2328465266764533</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38463949132515</v>
+        <v>2.384639491325228</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693681</v>
+        <v>8.976815719693976</v>
       </c>
       <c r="J8" t="n">
-        <v>19.762557893505</v>
+        <v>19.76255789350565</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771895</v>
+        <v>29.61895136771992</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849323</v>
+        <v>36.74492825849444</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727547</v>
+        <v>40.88581267727682</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119493</v>
+        <v>41.54738787119629</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155602</v>
+        <v>39.23202022155731</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423126</v>
+        <v>33.48362159423236</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763104</v>
+        <v>25.14480535763187</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133929</v>
+        <v>14.62654563133978</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639511</v>
+        <v>5.305990226639685</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526141</v>
+        <v>1.019285670526175</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411565</v>
+        <v>0.01862772213411626</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986286</v>
+        <v>0.1245838750986327</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610439</v>
+        <v>1.203217951610479</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825589</v>
+        <v>4.28940096282573</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429631</v>
+        <v>11.77044409429669</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590442</v>
+        <v>20.11756372590508</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104214</v>
+        <v>27.05054709104303</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336741</v>
+        <v>31.56671256336845</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523498</v>
+        <v>32.40218951523605</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489168</v>
+        <v>29.64167312489266</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878987</v>
+        <v>23.79005593879065</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223897</v>
+        <v>15.9030223722395</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211344</v>
+        <v>7.735128666211598</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906542</v>
+        <v>2.314090837906618</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282439</v>
+        <v>0.5021604439282603</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278197</v>
+        <v>0.008196307572278468</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.104446935839086</v>
+        <v>0.1044469358390895</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693294</v>
+        <v>0.9286282113693599</v>
       </c>
       <c r="I10" t="n">
-        <v>3.14100421596088</v>
+        <v>3.141004215960983</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823383</v>
+        <v>7.384398363823625</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930472</v>
+        <v>12.13483490930512</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647649</v>
+        <v>15.528410806477</v>
       </c>
       <c r="M10" t="n">
-        <v>16.372531951576</v>
+        <v>16.37253195157654</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617579</v>
+        <v>15.98322973617631</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205555</v>
+        <v>14.76309962205604</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093818</v>
+        <v>12.6323821309386</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125652</v>
+        <v>8.74600660012594</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364722</v>
+        <v>4.696314042364877</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395708</v>
+        <v>1.820225236395768</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124585</v>
+        <v>0.4462732713124731</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222881</v>
+        <v>0.005697105591223069</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637028</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385537</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062497</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36294,10 +36294,10 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8709530134653</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.3081204062497</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>592.3240543142032</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.816523705013</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36522,10 +36522,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618385</v>
       </c>
       <c r="N25" t="n">
-        <v>373.7708280358962</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
-        <v>886.78871282814</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.288011916206</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,10 +36762,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36835,22 +36835,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>586.8236523290561</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>558.4766521298085</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>579.9274611520867</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316589</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629108</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564835</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
